--- a/biology/Botanique/Gevuina_avellana/Gevuina_avellana.xlsx
+++ b/biology/Botanique/Gevuina_avellana/Gevuina_avellana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’avellano, noisetier chilien ou gevuín (Gevuina avellana), est une espèce plantes à fleurs de la famille des  Proteaceae. C'est un arbres à feuilles persistantes qui pousse dans les forêts tempérées du centre sud du Chili et Argentine, entre 35 et 44º de latitude Sud. Les colonisateurs espagnols l'ont appelé avellano à cause de la ressemblance de ses fruits avec ceux de Corylus avellana, le noisetier commun ou européen qui porte ce nom en espagnol.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre d'une hauteur de 10 à 15m, rarement 20m en France.
 Les fleurs éclosent de de mai à août. 
@@ -544,7 +558,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plantes mellifères, dont les fruits et fleurs sont comestibles. 
 La température minimale (Rusticité) est de 0°C à -5°C.
